--- a/processed/GDP_Weighted_Iran.xlsx
+++ b/processed/GDP_Weighted_Iran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\media_repos\habib_repository_github\Datasets\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3606E960-9706-49A6-9659-83A6C733B75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68124CC-8F94-4870-8FB9-FE85358C46B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76CD78DD-0639-4043-963E-1490C89B8E71}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>weighted decile Gini coefficient</t>
+    <t>GiniIndex</t>
   </si>
 </sst>
 </file>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -84,21 +84,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -418,18 +415,18 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="42.25" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -437,7 +434,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1363</v>
       </c>
       <c r="B2" s="1">
@@ -445,7 +442,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1364</v>
       </c>
       <c r="B3" s="1">
@@ -453,7 +450,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1365</v>
       </c>
       <c r="B4" s="1">
@@ -461,7 +458,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1366</v>
       </c>
       <c r="B5" s="1">
@@ -469,7 +466,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1367</v>
       </c>
       <c r="B6" s="1">
@@ -477,7 +474,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1368</v>
       </c>
       <c r="B7" s="1">
@@ -485,7 +482,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>1369</v>
       </c>
       <c r="B8" s="1">
@@ -493,7 +490,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1370</v>
       </c>
       <c r="B9" s="1">
@@ -501,7 +498,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1371</v>
       </c>
       <c r="B10" s="1">
@@ -509,7 +506,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1372</v>
       </c>
       <c r="B11" s="1">
@@ -517,7 +514,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1373</v>
       </c>
       <c r="B12" s="1">
@@ -525,7 +522,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1374</v>
       </c>
       <c r="B13" s="1">
@@ -533,7 +530,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1375</v>
       </c>
       <c r="B14" s="1">
@@ -541,7 +538,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1376</v>
       </c>
       <c r="B15" s="1">
@@ -549,7 +546,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>1377</v>
       </c>
       <c r="B16" s="1">
@@ -557,7 +554,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>1378</v>
       </c>
       <c r="B17" s="1">
@@ -565,7 +562,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>1379</v>
       </c>
       <c r="B18" s="1">
@@ -573,7 +570,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>1380</v>
       </c>
       <c r="B19" s="1">
@@ -581,7 +578,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>1381</v>
       </c>
       <c r="B20" s="1">
@@ -589,7 +586,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>1382</v>
       </c>
       <c r="B21" s="1">
@@ -597,7 +594,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1383</v>
       </c>
       <c r="B22" s="1">
@@ -605,7 +602,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1384</v>
       </c>
       <c r="B23" s="1">
@@ -613,7 +610,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>1385</v>
       </c>
       <c r="B24" s="1">
@@ -621,7 +618,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>1386</v>
       </c>
       <c r="B25" s="1">
@@ -629,7 +626,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>1387</v>
       </c>
       <c r="B26" s="1">
@@ -637,7 +634,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>1388</v>
       </c>
       <c r="B27" s="1">
@@ -645,7 +642,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>1389</v>
       </c>
       <c r="B28" s="2">
@@ -653,7 +650,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>1390</v>
       </c>
       <c r="B29" s="2">
@@ -661,7 +658,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>1391</v>
       </c>
       <c r="B30" s="2">
@@ -669,7 +666,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>1392</v>
       </c>
       <c r="B31" s="2">
@@ -677,7 +674,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>1393</v>
       </c>
       <c r="B32" s="1">
@@ -685,7 +682,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>1394</v>
       </c>
       <c r="B33" s="1">
@@ -693,7 +690,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>1395</v>
       </c>
       <c r="B34" s="1">
@@ -701,7 +698,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>1396</v>
       </c>
       <c r="B35" s="1">
@@ -709,7 +706,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>1397</v>
       </c>
       <c r="B36" s="1">
@@ -717,7 +714,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>1398</v>
       </c>
       <c r="B37" s="1">
@@ -725,7 +722,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>1399</v>
       </c>
       <c r="B38" s="1">
@@ -733,7 +730,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>1400</v>
       </c>
       <c r="B39" s="1">
@@ -741,7 +738,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>1401</v>
       </c>
       <c r="B40" s="1">
@@ -749,7 +746,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>1402</v>
       </c>
       <c r="B41" s="1">
